--- a/biology/Botanique/Climacospheniaceae/Climacospheniaceae.xlsx
+++ b/biology/Botanique/Climacospheniaceae/Climacospheniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Climacospheniaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Mediophyceae et de l’ordre des Toxariales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Climacosphenia, dérivé du grec κλιμάκιο / klimákio, petite échelle, et σφεν / sfen, coin, en référence à la forme de la diatomée.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christian Ehrenberg décrit le genre type en lui attribuant un nom vernaculaire[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christian Ehrenberg décrit le genre type en lui attribuant un nom vernaculaire :
 « Climacosphenia, Ehrenberg. Treppenkeilchen (« Cale d'escalier »).Lorica (loge de l’exosquelette) simple siliceuse, chacune plus longue que large, sessile ou libre, cunéiforme, cloisons internes empilées transversalement, comme les barreaux d’une échelle. (un Podosphenia ou un Echinella ?[note 1] Cloisons internes empilées et échelonnées.) »
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Climacosphenia est méditerranéen et Atlantique.
 </t>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (23 août 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (23 août 2022) :
 Climacosphenia Ehrenberg, 1841
 Synedrosphenia (H.Peragallo) Azpeitia, 1911</t>
         </is>
@@ -637,9 +657,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Climacospheniaceae Round, 1990[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Climacospheniaceae Round, 1990.
 </t>
         </is>
       </c>
@@ -668,7 +690,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Round, F.E., Crawford, R.M. &amp; Mann, D.G. (1990). The diatoms biology and morphology of the genera.  pp. [i-ix], 1-747. Cambridge: Cambridge University Press.</t>
         </is>
